--- a/form_reporting_templates/Form-1DR.xlsx
+++ b/form_reporting_templates/Form-1DR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C31F59E-084E-496E-B390-2A6C469CC8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D677B53-FC19-4A46-9417-B64BB879F3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -78,15 +78,6 @@
     <t>Reporting entity</t>
   </si>
   <si>
-    <t>IOTC form 1-DR | metadata</t>
-  </si>
-  <si>
-    <t>1-DR</t>
-  </si>
-  <si>
-    <t>IOTC form 1-DR | data</t>
-  </si>
-  <si>
     <t>Species</t>
   </si>
   <si>
@@ -436,6 +427,15 @@
   </si>
   <si>
     <t>Finalisation date</t>
+  </si>
+  <si>
+    <t>IOTC Form 1DR | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 1DR | metadata</t>
+  </si>
+  <si>
+    <t>1DR</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1660,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C2" s="82"/>
       <c r="D2" s="82"/>
@@ -1684,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="21" t="s">
@@ -1732,7 +1732,7 @@
       <c r="D8" s="80"/>
       <c r="E8" s="13"/>
       <c r="F8" s="80" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G8" s="80"/>
       <c r="H8" s="9"/>
@@ -1753,12 +1753,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="9"/>
@@ -1775,7 +1775,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="13"/>
@@ -1926,7 +1926,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lmYbLWy2odhcdNCyfDNqMG38yTJNf8Rf28k5bOzEKedk9UDJL/dWWFG0URQApenanqtvQIEXPns9oD1mBTIhMw==" saltValue="gIaNWjdhGHXZ0VlAiiWlSA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/+XM7e3BSRTmN1m5C8o6eTWWD64nxovtPGfK7VvVB9pCwKIS7Uo9rYy9+mmaB8wZcayiPLJ0MiWasF+1qpKlfg==" saltValue="dpfF576dE4eqDT0ZuN5jvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1971,7 +1971,7 @@
     <row r="1" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="C2" s="82"/>
       <c r="D2" s="82"/>
@@ -2011,98 +2011,98 @@
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="95" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="96"/>
       <c r="D4" s="97"/>
       <c r="E4" s="98"/>
       <c r="F4" s="102" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G4" s="103"/>
       <c r="H4" s="102" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="102" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K4" s="103"/>
       <c r="L4" s="102" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M4" s="103"/>
       <c r="N4" s="102" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O4" s="103"/>
       <c r="P4" s="104" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="103"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L5" s="67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M5" s="68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N5" s="67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O5" s="68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P5" s="69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="92" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="46"/>
@@ -2120,13 +2120,13 @@
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="94"/>
       <c r="C7" s="33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F7" s="48"/>
       <c r="G7" s="49"/>
@@ -2143,16 +2143,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="87" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="46"/>
@@ -2170,13 +2170,13 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="88"/>
       <c r="C9" s="35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="52"/>
@@ -2194,13 +2194,13 @@
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="89"/>
       <c r="C10" s="33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="49"/>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="92" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="46"/>
@@ -2244,13 +2244,13 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
       <c r="C12" s="35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="52"/>
@@ -2268,13 +2268,13 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="93"/>
       <c r="C13" s="35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="52"/>
@@ -2292,13 +2292,13 @@
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="94"/>
       <c r="C14" s="33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
@@ -2315,16 +2315,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>121</v>
-      </c>
       <c r="E15" s="73" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="57"/>
@@ -2342,13 +2342,13 @@
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="94"/>
       <c r="C16" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="49"/>
@@ -2365,16 +2365,16 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="87" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F17" s="45"/>
       <c r="G17" s="46"/>
@@ -2392,13 +2392,13 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="88"/>
       <c r="C18" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="52"/>
@@ -2416,13 +2416,13 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="88"/>
       <c r="C19" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="52"/>
@@ -2440,13 +2440,13 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="88"/>
       <c r="C20" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="52"/>
@@ -2464,13 +2464,13 @@
     <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="89"/>
       <c r="C21" s="33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="49"/>
@@ -2487,16 +2487,16 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="90" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="55"/>
@@ -2514,13 +2514,13 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="90"/>
       <c r="C23" s="40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" s="75" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F23" s="59"/>
       <c r="G23" s="60"/>
@@ -2538,13 +2538,13 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="90"/>
       <c r="C24" s="42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="75" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F24" s="59"/>
       <c r="G24" s="60"/>
@@ -2562,13 +2562,13 @@
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="90"/>
       <c r="C25" s="40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E25" s="75" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="60"/>
@@ -2586,13 +2586,13 @@
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="90"/>
       <c r="C26" s="42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E26" s="75" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F26" s="59"/>
       <c r="G26" s="60"/>
@@ -2610,13 +2610,13 @@
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="90"/>
       <c r="C27" s="40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E27" s="75" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F27" s="59"/>
       <c r="G27" s="60"/>
@@ -2634,13 +2634,13 @@
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="90"/>
       <c r="C28" s="42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E28" s="75" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="52"/>
@@ -2658,13 +2658,13 @@
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="90"/>
       <c r="C29" s="42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E29" s="75" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="52"/>
@@ -2682,13 +2682,13 @@
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="90"/>
       <c r="C30" s="42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E30" s="75" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
@@ -2706,13 +2706,13 @@
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="90"/>
       <c r="C31" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E31" s="75" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F31" s="59"/>
       <c r="G31" s="60"/>
@@ -2730,13 +2730,13 @@
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="90"/>
       <c r="C32" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E32" s="75" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F32" s="59"/>
       <c r="G32" s="60"/>
@@ -2754,13 +2754,13 @@
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="90"/>
       <c r="C33" s="40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E33" s="75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F33" s="59"/>
       <c r="G33" s="60"/>
@@ -2778,13 +2778,13 @@
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="90"/>
       <c r="C34" s="40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E34" s="75" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F34" s="59"/>
       <c r="G34" s="60"/>
@@ -2802,13 +2802,13 @@
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="90"/>
       <c r="C35" s="42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F35" s="59"/>
       <c r="G35" s="60"/>
@@ -2826,13 +2826,13 @@
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="90"/>
       <c r="C36" s="40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E36" s="75" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F36" s="59"/>
       <c r="G36" s="60"/>
@@ -2850,13 +2850,13 @@
     <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="91"/>
       <c r="C37" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E37" s="76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F37" s="61"/>
       <c r="G37" s="62"/>
@@ -2872,7 +2872,7 @@
       <c r="Q37" s="49"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3vNk2ixsfyopc4F4yglzjyH74ac6W+yRGulw+VcQ5Ir2GdQxqzbfR8WBoF4tgIBUclubhkC5/zQjWOTJOtDRZg==" saltValue="CfbYX0jxgx386n7ZkaQhkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2AvObUUUtx78wLbHUh9uOxlaoF5GKqDC1pwm72mhFOvzkduBNR2VBp/rzhRa6SohICCSBsiQDld6fBuFYkeuvA==" saltValue="kKbWx5Lxq5AjEZP2DOL+wg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B22:B37"/>

--- a/form_reporting_templates/Form-1DR.xlsx
+++ b/form_reporting_templates/Form-1DR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D677B53-FC19-4A46-9417-B64BB879F3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C1425B-4381-41A3-B1C3-2A273C1178A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -51,9 +51,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -436,6 +433,9 @@
   </si>
   <si>
     <t>1DR</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1660,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="82"/>
       <c r="D2" s="82"/>
@@ -1681,17 +1681,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="25"/>
     </row>
@@ -1707,7 +1707,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -1732,7 +1732,7 @@
       <c r="D8" s="80"/>
       <c r="E8" s="13"/>
       <c r="F8" s="80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" s="80"/>
       <c r="H8" s="9"/>
@@ -1753,12 +1753,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="9"/>
@@ -1775,7 +1775,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="13"/>
@@ -1786,7 +1786,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="13"/>
@@ -1835,7 +1835,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="13"/>
@@ -1846,7 +1846,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="13"/>
@@ -1857,7 +1857,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="66" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="13"/>
@@ -1886,7 +1886,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
@@ -1926,7 +1926,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/+XM7e3BSRTmN1m5C8o6eTWWD64nxovtPGfK7VvVB9pCwKIS7Uo9rYy9+mmaB8wZcayiPLJ0MiWasF+1qpKlfg==" saltValue="dpfF576dE4eqDT0ZuN5jvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iPbFfHxPrXqvIECaYnxwTrE+v3evOuRB2iTNchzR28/9+J2JkGHO8phtRyEmMMriAKebKpWHJEEp0o1nh2jgrw==" saltValue="gAqDQRgT40w2E7M1PX/OQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1940,7 +1940,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{C8E8FB11-F219-464A-BC2B-3DAE2B40B804}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{9812E6C2-BEE5-4C23-9A3D-B1B015FBD415}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{9812E6C2-BEE5-4C23-9A3D-B1B015FBD415}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1971,7 +1971,7 @@
     <row r="1" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="82"/>
       <c r="D2" s="82"/>
@@ -2011,98 +2011,98 @@
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="96"/>
       <c r="D4" s="97"/>
       <c r="E4" s="98"/>
       <c r="F4" s="102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="103"/>
       <c r="H4" s="102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K4" s="103"/>
       <c r="L4" s="102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M4" s="103"/>
       <c r="N4" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O4" s="103"/>
       <c r="P4" s="104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="103"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L5" s="67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M5" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N5" s="67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O5" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P5" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="46"/>
@@ -2120,13 +2120,13 @@
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="94"/>
       <c r="C7" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="48"/>
       <c r="G7" s="49"/>
@@ -2143,16 +2143,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="46"/>
@@ -2170,13 +2170,13 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="88"/>
       <c r="C9" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="52"/>
@@ -2194,13 +2194,13 @@
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="89"/>
       <c r="C10" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="49"/>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="46"/>
@@ -2244,13 +2244,13 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
       <c r="C12" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="52"/>
@@ -2268,13 +2268,13 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="93"/>
       <c r="C13" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="52"/>
@@ -2292,13 +2292,13 @@
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="94"/>
       <c r="C14" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="49"/>
@@ -2315,16 +2315,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="57"/>
@@ -2342,13 +2342,13 @@
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="94"/>
       <c r="C16" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="49"/>
@@ -2365,16 +2365,16 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" s="45"/>
       <c r="G17" s="46"/>
@@ -2392,13 +2392,13 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="88"/>
       <c r="C18" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="52"/>
@@ -2416,13 +2416,13 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="88"/>
       <c r="C19" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="52"/>
@@ -2440,13 +2440,13 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="88"/>
       <c r="C20" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="52"/>
@@ -2464,13 +2464,13 @@
     <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="89"/>
       <c r="C21" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="49"/>
@@ -2487,16 +2487,16 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="55"/>
@@ -2514,13 +2514,13 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="90"/>
       <c r="C23" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="59"/>
       <c r="G23" s="60"/>
@@ -2538,13 +2538,13 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="90"/>
       <c r="C24" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="59"/>
       <c r="G24" s="60"/>
@@ -2562,13 +2562,13 @@
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="90"/>
       <c r="C25" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="60"/>
@@ -2586,13 +2586,13 @@
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="90"/>
       <c r="C26" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="59"/>
       <c r="G26" s="60"/>
@@ -2610,13 +2610,13 @@
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="90"/>
       <c r="C27" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="59"/>
       <c r="G27" s="60"/>
@@ -2634,13 +2634,13 @@
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="90"/>
       <c r="C28" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="52"/>
@@ -2658,13 +2658,13 @@
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="90"/>
       <c r="C29" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="51"/>
       <c r="G29" s="52"/>
@@ -2682,13 +2682,13 @@
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="90"/>
       <c r="C30" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="59"/>
       <c r="G30" s="60"/>
@@ -2706,13 +2706,13 @@
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="90"/>
       <c r="C31" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="59"/>
       <c r="G31" s="60"/>
@@ -2730,13 +2730,13 @@
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="90"/>
       <c r="C32" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" s="59"/>
       <c r="G32" s="60"/>
@@ -2754,13 +2754,13 @@
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="90"/>
       <c r="C33" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" s="59"/>
       <c r="G33" s="60"/>
@@ -2778,13 +2778,13 @@
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="90"/>
       <c r="C34" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" s="59"/>
       <c r="G34" s="60"/>
@@ -2802,13 +2802,13 @@
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="90"/>
       <c r="C35" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F35" s="59"/>
       <c r="G35" s="60"/>
@@ -2826,13 +2826,13 @@
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="90"/>
       <c r="C36" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" s="59"/>
       <c r="G36" s="60"/>
@@ -2850,13 +2850,13 @@
     <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="91"/>
       <c r="C37" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="61"/>
       <c r="G37" s="62"/>

--- a/form_reporting_templates/Form-1DR.xlsx
+++ b/form_reporting_templates/Form-1DR.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C1425B-4381-41A3-B1C3-2A273C1178A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA902B29-9426-4A8C-B653-1DC9958B481D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1002,6 +1002,77 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1009,7 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1308,6 +1379,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1643,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1951,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,7 +2291,7 @@
       <c r="D10" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="105" t="s">
         <v>85</v>
       </c>
       <c r="F10" s="48"/>
@@ -2222,13 +2314,13 @@
       <c r="C11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="45"/>
+      <c r="D11" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="47"/>
       <c r="G11" s="46"/>
       <c r="H11" s="45"/>
       <c r="I11" s="46"/>
@@ -2246,13 +2338,13 @@
       <c r="C12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="51"/>
+      <c r="D12" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="53"/>
       <c r="G12" s="52"/>
       <c r="H12" s="51"/>
       <c r="I12" s="52"/>
@@ -2270,13 +2362,13 @@
       <c r="C13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="51"/>
+      <c r="D13" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="53"/>
       <c r="G13" s="52"/>
       <c r="H13" s="51"/>
       <c r="I13" s="52"/>
@@ -2294,13 +2386,13 @@
       <c r="C14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="48"/>
+      <c r="D14" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="50"/>
       <c r="G14" s="49"/>
       <c r="H14" s="48"/>
       <c r="I14" s="49"/>
@@ -2872,7 +2964,7 @@
       <c r="Q37" s="49"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2AvObUUUtx78wLbHUh9uOxlaoF5GKqDC1pwm72mhFOvzkduBNR2VBp/rzhRa6SohICCSBsiQDld6fBuFYkeuvA==" saltValue="kKbWx5Lxq5AjEZP2DOL+wg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="14">
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B22:B37"/>

--- a/form_reporting_templates/Form-1DR.xlsx
+++ b/form_reporting_templates/Form-1DR.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA902B29-9426-4A8C-B653-1DC9958B481D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82D0B44-47F3-4A2F-AA48-377368701C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1005,10 +1005,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1018,26 +1018,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1046,24 +1031,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1080,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1293,6 +1261,9 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1380,25 +1351,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1739,38 +1698,38 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="1" max="2" width="2.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
+    <col min="8" max="8" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
         <v>9</v>
@@ -1787,7 +1746,7 @@
       </c>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1796,7 +1755,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="10"/>
       <c r="C6" s="17" t="s">
         <v>6</v>
@@ -1807,7 +1766,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1816,20 +1775,20 @@
       <c r="G7" s="13"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="80"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="80"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="19" t="s">
         <v>2</v>
@@ -1842,7 +1801,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
         <v>127</v>
@@ -1855,7 +1814,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -1864,7 +1823,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
         <v>128</v>
@@ -1875,7 +1834,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
         <v>7</v>
@@ -1886,7 +1845,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1895,7 +1854,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1904,7 +1863,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="17" t="s">
         <v>3</v>
@@ -1915,7 +1874,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1924,7 +1883,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="11" t="s">
         <v>4</v>
@@ -1935,7 +1894,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="65" t="s">
         <v>11</v>
@@ -1946,7 +1905,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="66" t="s">
         <v>132</v>
@@ -1957,7 +1916,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
@@ -1966,7 +1925,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
@@ -1975,7 +1934,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
       <c r="C23" s="17" t="s">
         <v>5</v>
@@ -1986,7 +1945,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -1995,16 +1954,16 @@
       <c r="G24" s="13"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="79"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2013,7 +1972,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
@@ -2044,96 +2003,96 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
     <col min="12" max="13" width="10" customWidth="1"/>
-    <col min="14" max="17" width="11.42578125" customWidth="1"/>
+    <col min="14" max="17" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+    <row r="1" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="83"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="101"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="102"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="102" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="102" t="s">
+      <c r="G4" s="104"/>
+      <c r="H4" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="102" t="s">
+      <c r="I4" s="104"/>
+      <c r="J4" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="103"/>
-      <c r="L4" s="102" t="s">
+      <c r="K4" s="104"/>
+      <c r="L4" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="103"/>
-      <c r="N4" s="102" t="s">
+      <c r="M4" s="104"/>
+      <c r="N4" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="O4" s="103"/>
-      <c r="P4" s="104" t="s">
+      <c r="O4" s="104"/>
+      <c r="P4" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="Q4" s="103"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="104"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="27" t="s">
         <v>112</v>
       </c>
@@ -2183,8 +2142,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="92" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="93" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -2209,8 +2168,8 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="46"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="94"/>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="95"/>
       <c r="C7" s="33" t="s">
         <v>16</v>
       </c>
@@ -2233,8 +2192,8 @@
       <c r="P7" s="50"/>
       <c r="Q7" s="49"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="87" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="88" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -2259,8 +2218,8 @@
       <c r="P8" s="47"/>
       <c r="Q8" s="46"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="88"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="89"/>
       <c r="C9" s="35" t="s">
         <v>18</v>
       </c>
@@ -2283,15 +2242,15 @@
       <c r="P9" s="53"/>
       <c r="Q9" s="52"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="89"/>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="90"/>
       <c r="C10" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="77" t="s">
         <v>85</v>
       </c>
       <c r="F10" s="48"/>
@@ -2307,17 +2266,17 @@
       <c r="P10" s="50"/>
       <c r="Q10" s="49"/>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="92" t="s">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="93" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="109" t="s">
+      <c r="E11" s="106" t="s">
         <v>89</v>
       </c>
       <c r="F11" s="47"/>
@@ -2333,15 +2292,15 @@
       <c r="P11" s="47"/>
       <c r="Q11" s="46"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="93"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="94"/>
       <c r="C12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="107" t="s">
         <v>88</v>
       </c>
       <c r="F12" s="53"/>
@@ -2357,15 +2316,15 @@
       <c r="P12" s="53"/>
       <c r="Q12" s="52"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="93"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="94"/>
       <c r="C13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="107" t="s">
         <v>87</v>
       </c>
       <c r="F13" s="53"/>
@@ -2381,15 +2340,15 @@
       <c r="P13" s="53"/>
       <c r="Q13" s="52"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="94"/>
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="95"/>
       <c r="C14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="111" t="s">
+      <c r="E14" s="108" t="s">
         <v>86</v>
       </c>
       <c r="F14" s="50"/>
@@ -2405,8 +2364,8 @@
       <c r="P14" s="50"/>
       <c r="Q14" s="49"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="93" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="94" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="63" t="s">
@@ -2431,8 +2390,8 @@
       <c r="P15" s="58"/>
       <c r="Q15" s="57"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="94"/>
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="95"/>
       <c r="C16" s="33" t="s">
         <v>25</v>
       </c>
@@ -2455,8 +2414,8 @@
       <c r="P16" s="50"/>
       <c r="Q16" s="49"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="87" t="s">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="88" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -2481,8 +2440,8 @@
       <c r="P17" s="47"/>
       <c r="Q17" s="46"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="88"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="89"/>
       <c r="C18" s="35" t="s">
         <v>27</v>
       </c>
@@ -2505,8 +2464,8 @@
       <c r="P18" s="53"/>
       <c r="Q18" s="52"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="88"/>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="89"/>
       <c r="C19" s="35" t="s">
         <v>28</v>
       </c>
@@ -2529,8 +2488,8 @@
       <c r="P19" s="53"/>
       <c r="Q19" s="52"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="88"/>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="89"/>
       <c r="C20" s="35" t="s">
         <v>29</v>
       </c>
@@ -2553,8 +2512,8 @@
       <c r="P20" s="53"/>
       <c r="Q20" s="52"/>
     </row>
-    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="89"/>
+    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="90"/>
       <c r="C21" s="33" t="s">
         <v>30</v>
       </c>
@@ -2577,8 +2536,8 @@
       <c r="P21" s="50"/>
       <c r="Q21" s="49"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="90" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="91" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -2603,8 +2562,8 @@
       <c r="P22" s="58"/>
       <c r="Q22" s="57"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="90"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="91"/>
       <c r="C23" s="40" t="s">
         <v>32</v>
       </c>
@@ -2627,8 +2586,8 @@
       <c r="P23" s="53"/>
       <c r="Q23" s="52"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="90"/>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="91"/>
       <c r="C24" s="42" t="s">
         <v>33</v>
       </c>
@@ -2651,8 +2610,8 @@
       <c r="P24" s="53"/>
       <c r="Q24" s="52"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="90"/>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="91"/>
       <c r="C25" s="40" t="s">
         <v>34</v>
       </c>
@@ -2675,8 +2634,8 @@
       <c r="P25" s="53"/>
       <c r="Q25" s="52"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="90"/>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="91"/>
       <c r="C26" s="42" t="s">
         <v>35</v>
       </c>
@@ -2699,8 +2658,8 @@
       <c r="P26" s="53"/>
       <c r="Q26" s="52"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="91"/>
       <c r="C27" s="40" t="s">
         <v>36</v>
       </c>
@@ -2723,8 +2682,8 @@
       <c r="P27" s="53"/>
       <c r="Q27" s="52"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="90"/>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="91"/>
       <c r="C28" s="42" t="s">
         <v>37</v>
       </c>
@@ -2747,8 +2706,8 @@
       <c r="P28" s="53"/>
       <c r="Q28" s="52"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="90"/>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="91"/>
       <c r="C29" s="42" t="s">
         <v>38</v>
       </c>
@@ -2771,8 +2730,8 @@
       <c r="P29" s="53"/>
       <c r="Q29" s="52"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="90"/>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="91"/>
       <c r="C30" s="42" t="s">
         <v>39</v>
       </c>
@@ -2795,8 +2754,8 @@
       <c r="P30" s="53"/>
       <c r="Q30" s="52"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="90"/>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="91"/>
       <c r="C31" s="40" t="s">
         <v>40</v>
       </c>
@@ -2819,8 +2778,8 @@
       <c r="P31" s="53"/>
       <c r="Q31" s="52"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="90"/>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="91"/>
       <c r="C32" s="40" t="s">
         <v>41</v>
       </c>
@@ -2843,8 +2802,8 @@
       <c r="P32" s="53"/>
       <c r="Q32" s="52"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="90"/>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="91"/>
       <c r="C33" s="40" t="s">
         <v>42</v>
       </c>
@@ -2867,8 +2826,8 @@
       <c r="P33" s="53"/>
       <c r="Q33" s="52"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="90"/>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" s="91"/>
       <c r="C34" s="40" t="s">
         <v>43</v>
       </c>
@@ -2891,8 +2850,8 @@
       <c r="P34" s="53"/>
       <c r="Q34" s="52"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="90"/>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" s="91"/>
       <c r="C35" s="42" t="s">
         <v>44</v>
       </c>
@@ -2915,8 +2874,8 @@
       <c r="P35" s="53"/>
       <c r="Q35" s="52"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="90"/>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" s="91"/>
       <c r="C36" s="40" t="s">
         <v>45</v>
       </c>
@@ -2939,8 +2898,8 @@
       <c r="P36" s="53"/>
       <c r="Q36" s="52"/>
     </row>
-    <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="91"/>
+    <row r="37" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="92"/>
       <c r="C37" s="43" t="s">
         <v>46</v>
       </c>

--- a/form_reporting_templates/Form-1DR.xlsx
+++ b/form_reporting_templates/Form-1DR.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82D0B44-47F3-4A2F-AA48-377368701C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF75783A-FFCD-4CF7-AFAB-B984E5851A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
   <si>
     <t>Focal point</t>
   </si>
@@ -372,9 +372,6 @@
     <t>Rajiformes</t>
   </si>
   <si>
-    <t>Industrial</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -436,6 +433,12 @@
   </si>
   <si>
     <t>Flag state</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Longline</t>
   </si>
 </sst>
 </file>
@@ -443,8 +446,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1051,13 +1054,9 @@
   <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1088,7 +1087,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1264,6 +1263,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1350,15 +1362,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1396,9 +1399,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1436,7 +1439,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1542,7 +1545,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1684,7 +1687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1694,297 +1697,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1"/>
-    <col min="8" max="8" width="2.88671875" customWidth="1"/>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="82" t="s">
+    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
+      <c r="C6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="84"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="10"/>
-      <c r="C6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="10"/>
-      <c r="C16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B23" s="10"/>
-      <c r="C23" s="17" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iPbFfHxPrXqvIECaYnxwTrE+v3evOuRB2iTNchzR28/9+J2JkGHO8phtRyEmMMriAKebKpWHJEEp0o1nh2jgrw==" saltValue="gAqDQRgT40w2E7M1PX/OQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rgkI49fY4zJpDi7EutuvVTagR1kC6lDRGML/DMPipZCe2yGrqe2QdcLWAO0TwQRC3//BbjuLc30erLitgpueyg==" saltValue="cwjA1BLdguWQYF3Cv5Mu6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B2:H3"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C20" xr:uid="{8E297B03-0A07-4F47-BCBE-C9AF5FC05C42}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
@@ -2002,928 +2005,928 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="13" width="10" customWidth="1"/>
-    <col min="14" max="17" width="11.44140625" customWidth="1"/>
+    <col min="14" max="17" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="84"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="102"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="96" t="s">
+    <row r="1" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="87"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="103" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="107"/>
+      <c r="H4" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="103" t="s">
+      <c r="I4" s="107"/>
+      <c r="J4" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="103" t="s">
+      <c r="K4" s="107"/>
+      <c r="L4" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="103" t="s">
+      <c r="M4" s="107"/>
+      <c r="N4" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="104"/>
-      <c r="N4" s="103" t="s">
+      <c r="O4" s="107"/>
+      <c r="P4" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" s="104"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="27" t="s">
+      <c r="Q4" s="107"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" s="67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="45"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="98"/>
+      <c r="C7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="48"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="45"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="92"/>
+      <c r="C9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="51"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="93"/>
+      <c r="C10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="48"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="67" t="s">
+      <c r="C11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="45"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="97"/>
+      <c r="C12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="51"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="97"/>
+      <c r="C13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="51"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="98"/>
+      <c r="C14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="48"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="56"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="98"/>
+      <c r="C16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="45"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="92"/>
+      <c r="C18" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="51"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="92"/>
+      <c r="C19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="51"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="92"/>
+      <c r="C20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="51"/>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="93"/>
+      <c r="C21" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="48"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="56"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="94"/>
+      <c r="C23" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="51"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="94"/>
+      <c r="C24" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="51"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="94"/>
+      <c r="C25" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="O5" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="P5" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q5" s="68" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="46"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="95"/>
-      <c r="C7" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="49"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="46"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
-      <c r="C9" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="52"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="90"/>
-      <c r="C10" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="49"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="106" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="46"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="94"/>
-      <c r="C12" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="107" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="52"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="94"/>
-      <c r="C13" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="107" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="52"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="95"/>
-      <c r="C14" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="49"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="94" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="57"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="95"/>
-      <c r="C16" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="49"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="46"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="89"/>
-      <c r="C18" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="52"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="89"/>
-      <c r="C19" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="52"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="89"/>
-      <c r="C20" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="52"/>
-    </row>
-    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="90"/>
-      <c r="C21" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="49"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="57"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="91"/>
-      <c r="C23" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="52"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="91"/>
-      <c r="C24" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="52"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="91"/>
-      <c r="C25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="52"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="91"/>
-      <c r="C26" s="42" t="s">
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="51"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="94"/>
+      <c r="C26" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="52"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="91"/>
-      <c r="C27" s="40" t="s">
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="51"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="94"/>
+      <c r="C27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="52"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="91"/>
-      <c r="C28" s="42" t="s">
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="51"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="94"/>
+      <c r="C28" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="52"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="91"/>
-      <c r="C29" s="42" t="s">
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="51"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="94"/>
+      <c r="C29" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="52"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="91"/>
-      <c r="C30" s="42" t="s">
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="51"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="94"/>
+      <c r="C30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="52"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="91"/>
-      <c r="C31" s="40" t="s">
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="51"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="94"/>
+      <c r="C31" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="75" t="s">
+      <c r="E31" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="52"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="91"/>
-      <c r="C32" s="40" t="s">
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="51"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="94"/>
+      <c r="C32" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="52"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="91"/>
-      <c r="C33" s="40" t="s">
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="51"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="94"/>
+      <c r="C33" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="52"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="91"/>
-      <c r="C34" s="40" t="s">
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="51"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="94"/>
+      <c r="C34" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="52"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="91"/>
-      <c r="C35" s="42" t="s">
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="51"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="94"/>
+      <c r="C35" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="52"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="91"/>
-      <c r="C36" s="40" t="s">
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="51"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="94"/>
+      <c r="C36" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="52"/>
-    </row>
-    <row r="37" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="92"/>
-      <c r="C37" s="43" t="s">
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="51"/>
+    </row>
+    <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="95"/>
+      <c r="C37" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="76" t="s">
+      <c r="E37" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="49"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RDQiS7nx63yQCjZJXZJty96X9F82zNVrob0WpoFn1ZpuXumPcZrLF+DDUP7uL86MHwPES1UyQQWnvUEx6SzKEg==" saltValue="r24Oc0vmnmDJMvj4q8PFjQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="14">
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B22:B37"/>

--- a/form_reporting_templates/Form-1DR.xlsx
+++ b/form_reporting_templates/Form-1DR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF75783A-FFCD-4CF7-AFAB-B984E5851A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EBDD60-5636-419D-9AD0-1940DAFDFFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
   <si>
-    <t>Focal point</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -439,6 +436,9 @@
   </si>
   <si>
     <t>Longline</t>
+  </si>
+  <si>
+    <t>Liaison officer</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1698,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1714,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -1735,17 +1735,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="19"/>
       <c r="C4" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="24"/>
     </row>
@@ -1761,7 +1761,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1781,12 +1781,12 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="84" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="12"/>
       <c r="F8" s="84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" s="84"/>
       <c r="H8" s="8"/>
@@ -1794,12 +1794,12 @@
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="12"/>
       <c r="F9" s="18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="8"/>
@@ -1807,12 +1807,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="8"/>
@@ -1829,7 +1829,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="80"/>
       <c r="E12" s="12"/>
@@ -1840,7 +1840,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="80"/>
       <c r="E13" s="12"/>
@@ -1869,7 +1869,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1889,7 +1889,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="12"/>
@@ -1900,7 +1900,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="12"/>
@@ -1911,7 +1911,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="12"/>
@@ -1940,7 +1940,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
@@ -1980,7 +1980,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rgkI49fY4zJpDi7EutuvVTagR1kC6lDRGML/DMPipZCe2yGrqe2QdcLWAO0TwQRC3//BbjuLc30erLitgpueyg==" saltValue="cwjA1BLdguWQYF3Cv5Mu6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wxQXuS16nc+dwciZHATRh2O4Gh6nVNNdqIOFHjTdU4NEQcocxs3Oug0DUhdfPQJGI3CUfI9PWAJWqHluW/yubA==" saltValue="8esF2tkG/4VKJF+x5/HECA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -2025,7 +2025,7 @@
     <row r="1" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -2065,98 +2065,98 @@
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="101"/>
       <c r="E4" s="102"/>
       <c r="F4" s="106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="107"/>
       <c r="H4" s="106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" s="107"/>
       <c r="J4" s="106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" s="107"/>
       <c r="L4" s="106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M4" s="107"/>
       <c r="N4" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O4" s="107"/>
       <c r="P4" s="108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="107"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="67" t="s">
-        <v>133</v>
-      </c>
       <c r="L5" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M5" s="67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N5" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P5" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="45"/>
@@ -2174,13 +2174,13 @@
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="98"/>
       <c r="C7" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="48"/>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="45"/>
@@ -2224,13 +2224,13 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="92"/>
       <c r="C9" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="51"/>
@@ -2248,13 +2248,13 @@
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="93"/>
       <c r="C10" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="48"/>
@@ -2271,16 +2271,16 @@
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="45"/>
@@ -2298,13 +2298,13 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="97"/>
       <c r="C12" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="52"/>
       <c r="G12" s="51"/>
@@ -2322,13 +2322,13 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="97"/>
       <c r="C13" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="51"/>
@@ -2346,13 +2346,13 @@
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="98"/>
       <c r="C14" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="49"/>
       <c r="G14" s="48"/>
@@ -2369,16 +2369,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="55"/>
       <c r="G15" s="56"/>
@@ -2396,13 +2396,13 @@
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="98"/>
       <c r="C16" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="48"/>
@@ -2419,16 +2419,16 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="45"/>
@@ -2446,13 +2446,13 @@
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="92"/>
       <c r="C18" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
@@ -2470,13 +2470,13 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="92"/>
       <c r="C19" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -2494,13 +2494,13 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="92"/>
       <c r="C20" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -2518,13 +2518,13 @@
     <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="93"/>
       <c r="C21" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="47"/>
       <c r="G21" s="48"/>
@@ -2541,16 +2541,16 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="54"/>
@@ -2568,13 +2568,13 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="94"/>
       <c r="C23" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="59"/>
@@ -2592,13 +2592,13 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="94"/>
       <c r="C24" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" s="58"/>
       <c r="G24" s="59"/>
@@ -2616,13 +2616,13 @@
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="94"/>
       <c r="C25" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" s="74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="59"/>
@@ -2640,13 +2640,13 @@
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="94"/>
       <c r="C26" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="58"/>
       <c r="G26" s="59"/>
@@ -2664,13 +2664,13 @@
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="94"/>
       <c r="C27" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="58"/>
       <c r="G27" s="59"/>
@@ -2688,13 +2688,13 @@
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="94"/>
       <c r="C28" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
@@ -2712,13 +2712,13 @@
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="94"/>
       <c r="C29" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
@@ -2736,13 +2736,13 @@
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="94"/>
       <c r="C30" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30" s="58"/>
       <c r="G30" s="59"/>
@@ -2760,13 +2760,13 @@
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="94"/>
       <c r="C31" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="58"/>
       <c r="G31" s="59"/>
@@ -2784,13 +2784,13 @@
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="94"/>
       <c r="C32" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="58"/>
       <c r="G32" s="59"/>
@@ -2808,13 +2808,13 @@
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="94"/>
       <c r="C33" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" s="58"/>
       <c r="G33" s="59"/>
@@ -2832,13 +2832,13 @@
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="94"/>
       <c r="C34" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34" s="58"/>
       <c r="G34" s="59"/>
@@ -2856,13 +2856,13 @@
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="94"/>
       <c r="C35" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" s="74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35" s="58"/>
       <c r="G35" s="59"/>
@@ -2880,13 +2880,13 @@
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="94"/>
       <c r="C36" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F36" s="58"/>
       <c r="G36" s="59"/>
@@ -2904,13 +2904,13 @@
     <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="95"/>
       <c r="C37" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="61"/>

--- a/form_reporting_templates/Form-1DR.xlsx
+++ b/form_reporting_templates/Form-1DR.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data-reporting\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EBDD60-5636-419D-9AD0-1940DAFDFFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54844B4-8413-44FA-B0DA-56488115104B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="/5AWK0YlNYQCXPLY+QyY5yirrIxciiA4NC1K47snIvSmu1Vqu9/jzVRxxG7mizp4cA1dwMv5Hlsc01eFhrXlCA==" workbookSaltValue="zup5fyVEUR4cmtcOMB/Kag==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Values" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Expected_values">Values!$A$1:$A$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -439,6 +443,12 @@
   </si>
   <si>
     <t>Liaison officer</t>
+  </si>
+  <si>
+    <t>NB. Each cell must be completed with a value of one (1) in the case of a positive catch, or zero (0) if no catch occurred - that is, there were neither landings nor discards</t>
+  </si>
+  <si>
+    <t>Expected_values</t>
   </si>
 </sst>
 </file>
@@ -449,7 +459,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +525,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1051,7 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1152,72 +1169,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1362,6 +1313,74 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1713,24 +1732,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="19"/>
@@ -1780,15 +1799,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="84"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1831,7 +1850,7 @@
       <c r="C12" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="80"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1842,7 +1861,7 @@
       <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="80"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1899,7 +1918,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="4"/>
@@ -1910,7 +1929,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="47" t="s">
         <v>130</v>
       </c>
       <c r="D20" s="4"/>
@@ -1959,11 +1978,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2003,7 +2022,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -2024,76 +2043,76 @@
   <sheetData>
     <row r="1" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="87"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="105"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="87"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="106" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="106" t="s">
+      <c r="G4" s="89"/>
+      <c r="H4" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="106" t="s">
+      <c r="I4" s="89"/>
+      <c r="J4" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="107"/>
-      <c r="L4" s="106" t="s">
+      <c r="K4" s="89"/>
+      <c r="L4" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="107"/>
-      <c r="N4" s="106" t="s">
+      <c r="M4" s="89"/>
+      <c r="N4" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="O4" s="107"/>
-      <c r="P4" s="108" t="s">
+      <c r="O4" s="89"/>
+      <c r="P4" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="Q4" s="107"/>
+      <c r="Q4" s="89"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
@@ -2108,45 +2127,45 @@
       <c r="E5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="P5" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="Q5" s="67" t="s">
+      <c r="Q5" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="78" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -2155,48 +2174,48 @@
       <c r="D6" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="45"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="94"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="98"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="48"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="97"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="73" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="30" t="s">
@@ -2205,72 +2224,72 @@
       <c r="D8" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="45"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="94"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="92"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="34" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="51"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="100"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="93"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="48"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="97"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="78" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="30" t="s">
@@ -2279,146 +2298,146 @@
       <c r="D11" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="45"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="94"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="97"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="51"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="100"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="97"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="51"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="100"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="98"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="48"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="97"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="56"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="103"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="48"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="97"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="73" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="30" t="s">
@@ -2427,120 +2446,120 @@
       <c r="D17" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="69" t="s">
+      <c r="E17" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="45"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="51"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="100"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="92"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="51"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="100"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="92"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="34" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="51"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="100"/>
     </row>
     <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="93"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="32" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="48"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="97"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="76" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="37" t="s">
@@ -2549,384 +2568,395 @@
       <c r="D22" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="56"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="103"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="94"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="39" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="51"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="100"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="94"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="51"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="100"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="94"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="51"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="100"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="94"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="51"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="100"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="94"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="51"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="100"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="94"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="41" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="51"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="100"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="94"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="41" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="51"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="100"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="94"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="41" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="51"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="100"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="94"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="51"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="100"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="94"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="E32" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="51"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="100"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="94"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="39" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="74" t="s">
+      <c r="E33" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="51"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="100"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="94"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="39" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="51"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="100"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="94"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="41" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="51"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="100"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="94"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="74" t="s">
+      <c r="E36" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="51"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="100"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="95"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="48"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="97"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RDQiS7nx63yQCjZJXZJty96X9F82zNVrob0WpoFn1ZpuXumPcZrLF+DDUP7uL86MHwPES1UyQQWnvUEx6SzKEg==" saltValue="r24Oc0vmnmDJMvj4q8PFjQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OFLGjK6jmnATfWWX1/EKp17NUhq4a2bqkC/huCvBOzMlF4XcXrvlZrxfHIvonONQU1oZn+QmmfSncEa18mC99w==" saltValue="555EDAvs0Fj43RbjGe1KEg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="14">
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B22:B37"/>
@@ -2948,7 +2978,44 @@
       <formula>F6=""</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:Q21 J23:K37 J22 K22 F28:I29 L27:Q31 N22:Q26 N32:Q37 L35:M35" xr:uid="{8D2C150A-D79F-418D-AE83-6A69260906D7}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A117AE5-19B2-4267-A63D-558736C1F5FF}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>